--- a/config_Release/systgxt_config.xlsx
+++ b/config_Release/systgxt_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>line</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>cpl_notcjj</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6</t>
   </si>
   <si>
     <t>"bossqsb_bg_2","hlqkdhb_bg_2","mrbxl_bg_1"</t>
@@ -279,6 +276,14 @@
     <t>"游戏问题：搜索公众号“鲸鱼初纪元”，点击“联系客服”咨询。",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>"搜索公众号“鲸鱼初纪元”，点击“联系客服”咨询。",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -315,7 +320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +336,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -409,6 +420,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,7 +743,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -765,14 +791,14 @@
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -792,13 +818,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -1398,7 +1424,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1409,13 +1435,13 @@
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1436,10 +1462,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -1460,10 +1486,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1484,10 +1510,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1508,10 +1534,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1532,10 +1558,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1556,10 +1582,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1580,10 +1606,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1604,10 +1630,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1628,10 +1654,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1652,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1676,10 +1702,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1695,95 +1721,125 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+    <row r="13" spans="1:16" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+    </row>
+    <row r="14" spans="1:16" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+    </row>
+    <row r="15" spans="1:16" s="18" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+    </row>
+    <row r="16" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+    </row>
+    <row r="17" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>

--- a/config_Release/systgxt_config.xlsx
+++ b/config_Release/systgxt_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="permission" sheetId="1" r:id="rId1"/>
     <sheet name="jc_config" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>line</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>&lt;size=42&gt;&lt;color=#000000&gt;3.如何赚钱？&lt;/color&gt;&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>"邀请1位好友，您最高可赚30元，方式如下：","1）好友首次在兑换商城兑换任意奖励，您得3元","2）好友成为VIP2，您得9元","3）好友成为VIP3，您得18元","&lt;color=#FF0000&gt;若好友在绑定成为您的下级之前已经完成任务，则绑定后无法为您贡献对应任务的奖励，好友列表中该任务状态会显示为“无效”。&lt;/color&gt;"</t>
   </si>
   <si>
     <t>&lt;size=42&gt;&lt;color=#000000&gt;4.如何查看并提取收益？&lt;/color&gt;&lt;/size&gt;</t>
@@ -262,6 +259,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"搜索公众号“彩云新世界”，点击“联系客服”咨询。",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"游戏问题：搜索公众号“鲸鱼初纪元”，点击“联系客服”咨询。",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"搜索公众号“鲸鱼初纪元”，点击“联系客服”咨询。",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"邀请1位好友，您最高可赚30元，方式如下：","1）好友首次在兑换商城兑换任意奖励，您得3元","2）好友成为VIP2，您得9元","3）好友成为VIP3，您得18元","&lt;color=#FF0000&gt;若好友在绑定成为您的下级之前已经完成任务，则绑定后无法为您贡献对应任务的奖励，好友列表中该任务状态会显示为“无效”。&lt;/color&gt;"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"邀请1位好友，您最高可赚30元，方式如下：",
 "1）好友首次在兑换商城兑换任意奖励，您得3元",
 "2）好友成为VIP2，您得9元",
@@ -269,20 +286,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"搜索公众号“彩云新世界”，点击“联系客服”咨询。",</t>
+    <t>"邀请1位好友，您最高可赚30元，方式如下：",
+"1）好友首次在兑换商城兑换任意奖励，您得3元",
+"2）好友成为VIP2，您得9元",
+"3）好友成为VIP3，您得18元",
+"&lt;color=#FF0000&gt;若好友在绑定成为您的下级之前已经完成任务，则绑定后无法为您贡献对应任务的奖励，好友列表中该任务状态会显示为“无效”。&lt;/color&gt;"</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"游戏问题：搜索公众号“鲸鱼初纪元”，点击“联系客服”咨询。",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"搜索公众号“鲸鱼初纪元”，点击“联系客服”咨询。",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,13,14,15,16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -792,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>6</v>
@@ -824,7 +833,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -1424,7 +1433,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1489,7 +1498,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1512,8 +1521,8 @@
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
+      <c r="C4" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1534,10 +1543,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1558,10 +1567,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1582,10 +1591,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1606,10 +1615,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1630,10 +1639,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1654,10 +1663,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1678,10 +1687,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1702,10 +1711,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1726,10 +1735,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -1750,10 +1759,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -1769,15 +1778,15 @@
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
     </row>
-    <row r="15" spans="1:16" s="18" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" s="18" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -1798,10 +1807,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -1822,10 +1831,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
